--- a/public/data/MDCReport_Store1002_2025-08-30.xlsx
+++ b/public/data/MDCReport_Store1002_2025-08-30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="1017">
   <si>
     <t>BARRERA, JOSE</t>
   </si>
@@ -1377,6 +1377,9 @@
   </si>
   <si>
     <t>08/14/2021 00:00:00</t>
+  </si>
+  <si>
+    <t>08/30/2025 00:00:00</t>
   </si>
   <si>
     <t>02/24/2023 00:00:00</t>
@@ -16039,10 +16042,10 @@
         <v>61</v>
       </c>
       <c r="AR83" s="0" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AS83" s="0" t="s">
-        <v>61</v>
+        <v>455</v>
       </c>
       <c r="AT83" s="0" t="s">
         <v>61</v>
@@ -16060,7 +16063,7 @@
         <v>38</v>
       </c>
       <c r="AY83" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AZ83" s="0" t="s">
         <v>61</v>
@@ -16068,7 +16071,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>61</v>
@@ -16155,7 +16158,7 @@
         <v>38</v>
       </c>
       <c r="AD84" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AE84" s="0" t="s">
         <v>61</v>
@@ -16226,94 +16229,94 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="V85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="W85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="X85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC85" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD85" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="M85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="N85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="T85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="V85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="W85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="X85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB85" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC85" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD85" s="0" t="s">
-        <v>457</v>
       </c>
       <c r="AE85" s="0" t="s">
         <v>61</v>
@@ -16384,7 +16387,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>61</v>
@@ -16542,7 +16545,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>61</v>
@@ -16700,7 +16703,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>61</v>
@@ -16724,7 +16727,7 @@
         <v>38</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J88" s="0" t="s">
         <v>61</v>
@@ -16733,7 +16736,7 @@
         <v>38</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M88" s="0" t="s">
         <v>61</v>
@@ -16787,7 +16790,7 @@
         <v>38</v>
       </c>
       <c r="AD88" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AE88" s="0" t="s">
         <v>61</v>
@@ -16850,7 +16853,7 @@
         <v>38</v>
       </c>
       <c r="AY88" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AZ88" s="0" t="s">
         <v>61</v>
@@ -16858,7 +16861,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>61</v>
@@ -16873,7 +16876,7 @@
         <v>38</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>61</v>
@@ -16882,7 +16885,7 @@
         <v>38</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J89" s="0" t="s">
         <v>61</v>
@@ -16891,7 +16894,7 @@
         <v>38</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M89" s="0" t="s">
         <v>61</v>
@@ -16945,7 +16948,7 @@
         <v>38</v>
       </c>
       <c r="AD89" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE89" s="0" t="s">
         <v>61</v>
@@ -17008,7 +17011,7 @@
         <v>38</v>
       </c>
       <c r="AY89" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AZ89" s="0" t="s">
         <v>61</v>
@@ -17016,7 +17019,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>61</v>
@@ -17040,7 +17043,7 @@
         <v>38</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>61</v>
@@ -17049,7 +17052,7 @@
         <v>38</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M90" s="0" t="s">
         <v>61</v>
@@ -17103,7 +17106,7 @@
         <v>38</v>
       </c>
       <c r="AD90" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AE90" s="0" t="s">
         <v>61</v>
@@ -17166,7 +17169,7 @@
         <v>38</v>
       </c>
       <c r="AY90" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AZ90" s="0" t="s">
         <v>61</v>
@@ -17174,7 +17177,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>61</v>
@@ -17189,7 +17192,7 @@
         <v>38</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>61</v>
@@ -17207,7 +17210,7 @@
         <v>38</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M91" s="0" t="s">
         <v>61</v>
@@ -17261,7 +17264,7 @@
         <v>38</v>
       </c>
       <c r="AD91" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE91" s="0" t="s">
         <v>61</v>
@@ -17324,7 +17327,7 @@
         <v>38</v>
       </c>
       <c r="AY91" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AZ91" s="0" t="s">
         <v>61</v>
@@ -17332,7 +17335,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>61</v>
@@ -17347,7 +17350,7 @@
         <v>38</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>61</v>
@@ -17356,7 +17359,7 @@
         <v>38</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>61</v>
@@ -17365,7 +17368,7 @@
         <v>38</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M92" s="0" t="s">
         <v>61</v>
@@ -17419,7 +17422,7 @@
         <v>38</v>
       </c>
       <c r="AD92" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE92" s="0" t="s">
         <v>61</v>
@@ -17482,7 +17485,7 @@
         <v>38</v>
       </c>
       <c r="AY92" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AZ92" s="0" t="s">
         <v>61</v>
@@ -17490,7 +17493,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>61</v>
@@ -17577,7 +17580,7 @@
         <v>38</v>
       </c>
       <c r="AD93" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AE93" s="0" t="s">
         <v>61</v>
@@ -17648,7 +17651,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>61</v>
@@ -17806,7 +17809,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>61</v>
@@ -17821,7 +17824,7 @@
         <v>38</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>61</v>
@@ -17839,7 +17842,7 @@
         <v>38</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M95" s="0" t="s">
         <v>61</v>
@@ -17964,7 +17967,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>61</v>
@@ -17997,7 +18000,7 @@
         <v>38</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M96" s="0" t="s">
         <v>61</v>
@@ -18122,7 +18125,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>61</v>
@@ -18140,7 +18143,7 @@
         <v>296</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>38</v>
@@ -18149,16 +18152,16 @@
         <v>297</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K97" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N97" s="0" t="s">
         <v>61</v>
@@ -18209,10 +18212,10 @@
         <v>38</v>
       </c>
       <c r="AD97" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AE97" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF97" s="0" t="s">
         <v>61</v>
@@ -18272,15 +18275,15 @@
         <v>38</v>
       </c>
       <c r="AY97" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AZ97" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>61</v>
@@ -18295,19 +18298,19 @@
         <v>38</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K98" s="0" t="s">
         <v>38</v>
@@ -18316,7 +18319,7 @@
         <v>212</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N98" s="0" t="s">
         <v>61</v>
@@ -18349,10 +18352,10 @@
         <v>38</v>
       </c>
       <c r="X98" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Y98" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Z98" s="0" t="s">
         <v>61</v>
@@ -18367,10 +18370,10 @@
         <v>38</v>
       </c>
       <c r="AD98" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AE98" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF98" s="0" t="s">
         <v>61</v>
@@ -18406,7 +18409,7 @@
         <v>244</v>
       </c>
       <c r="AQ98" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AR98" s="0" t="s">
         <v>61</v>
@@ -18430,15 +18433,15 @@
         <v>38</v>
       </c>
       <c r="AY98" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AZ98" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>61</v>
@@ -18453,28 +18456,28 @@
         <v>38</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K99" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N99" s="0" t="s">
         <v>61</v>
@@ -18507,10 +18510,10 @@
         <v>38</v>
       </c>
       <c r="X99" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y99" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z99" s="0" t="s">
         <v>61</v>
@@ -18525,10 +18528,10 @@
         <v>38</v>
       </c>
       <c r="AD99" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AE99" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF99" s="0" t="s">
         <v>61</v>
@@ -18564,7 +18567,7 @@
         <v>254</v>
       </c>
       <c r="AQ99" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AR99" s="0" t="s">
         <v>61</v>
@@ -18588,15 +18591,15 @@
         <v>38</v>
       </c>
       <c r="AY99" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AZ99" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>61</v>
@@ -18611,19 +18614,19 @@
         <v>38</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K100" s="0" t="s">
         <v>38</v>
@@ -18632,7 +18635,7 @@
         <v>219</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N100" s="0" t="s">
         <v>61</v>
@@ -18665,10 +18668,10 @@
         <v>38</v>
       </c>
       <c r="X100" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y100" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z100" s="0" t="s">
         <v>61</v>
@@ -18683,10 +18686,10 @@
         <v>38</v>
       </c>
       <c r="AD100" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AE100" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF100" s="0" t="s">
         <v>61</v>
@@ -18722,7 +18725,7 @@
         <v>254</v>
       </c>
       <c r="AQ100" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AR100" s="0" t="s">
         <v>61</v>
@@ -18746,15 +18749,15 @@
         <v>38</v>
       </c>
       <c r="AY100" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AZ100" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>61</v>
@@ -18787,10 +18790,10 @@
         <v>38</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N101" s="0" t="s">
         <v>61</v>
@@ -18841,10 +18844,10 @@
         <v>38</v>
       </c>
       <c r="AD101" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AE101" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF101" s="0" t="s">
         <v>61</v>
@@ -18912,7 +18915,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>61</v>
@@ -18945,10 +18948,10 @@
         <v>38</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N102" s="0" t="s">
         <v>61</v>
@@ -18999,10 +19002,10 @@
         <v>38</v>
       </c>
       <c r="AD102" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AE102" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF102" s="0" t="s">
         <v>61</v>
@@ -19062,15 +19065,15 @@
         <v>38</v>
       </c>
       <c r="AY102" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AZ102" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>61</v>
@@ -19103,10 +19106,10 @@
         <v>38</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N103" s="0" t="s">
         <v>61</v>
@@ -19157,10 +19160,10 @@
         <v>38</v>
       </c>
       <c r="AD103" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AE103" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF103" s="0" t="s">
         <v>61</v>
@@ -19220,15 +19223,15 @@
         <v>38</v>
       </c>
       <c r="AY103" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AZ103" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>61</v>
@@ -19261,10 +19264,10 @@
         <v>38</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N104" s="0" t="s">
         <v>61</v>
@@ -19315,10 +19318,10 @@
         <v>38</v>
       </c>
       <c r="AD104" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AE104" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF104" s="0" t="s">
         <v>61</v>
@@ -19354,7 +19357,7 @@
         <v>254</v>
       </c>
       <c r="AQ104" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AR104" s="0" t="s">
         <v>61</v>
@@ -19378,15 +19381,15 @@
         <v>38</v>
       </c>
       <c r="AY104" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AZ104" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>61</v>
@@ -19419,10 +19422,10 @@
         <v>38</v>
       </c>
       <c r="L105" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N105" s="0" t="s">
         <v>61</v>
@@ -19473,10 +19476,10 @@
         <v>38</v>
       </c>
       <c r="AD105" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AE105" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF105" s="0" t="s">
         <v>61</v>
@@ -19544,7 +19547,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>61</v>
@@ -19577,10 +19580,10 @@
         <v>38</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N106" s="0" t="s">
         <v>61</v>
@@ -19631,10 +19634,10 @@
         <v>38</v>
       </c>
       <c r="AD106" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AE106" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF106" s="0" t="s">
         <v>61</v>
@@ -19694,15 +19697,15 @@
         <v>38</v>
       </c>
       <c r="AY106" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AZ106" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>61</v>
@@ -19789,10 +19792,10 @@
         <v>38</v>
       </c>
       <c r="AD107" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AE107" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF107" s="0" t="s">
         <v>61</v>
@@ -19860,7 +19863,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>61</v>
@@ -20018,7 +20021,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>61</v>
@@ -20176,7 +20179,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>61</v>
@@ -20334,7 +20337,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>61</v>
@@ -20492,7 +20495,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>61</v>
@@ -20525,10 +20528,10 @@
         <v>38</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N112" s="0" t="s">
         <v>61</v>
@@ -20650,7 +20653,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>61</v>
@@ -20808,7 +20811,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>61</v>
@@ -20966,7 +20969,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>61</v>
@@ -21124,7 +21127,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>61</v>
@@ -21282,7 +21285,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>61</v>
@@ -21315,10 +21318,10 @@
         <v>38</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N117" s="0" t="s">
         <v>61</v>
@@ -21440,7 +21443,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>61</v>
@@ -21598,7 +21601,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>61</v>
@@ -21685,10 +21688,10 @@
         <v>38</v>
       </c>
       <c r="AD119" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AE119" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF119" s="0" t="s">
         <v>61</v>
@@ -21756,7 +21759,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>61</v>
@@ -21843,10 +21846,10 @@
         <v>38</v>
       </c>
       <c r="AD120" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AE120" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF120" s="0" t="s">
         <v>61</v>
@@ -21914,7 +21917,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>61</v>
@@ -21938,10 +21941,10 @@
         <v>38</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K121" s="0" t="s">
         <v>61</v>
@@ -22072,7 +22075,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>61</v>
@@ -22230,7 +22233,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>61</v>
@@ -22317,10 +22320,10 @@
         <v>38</v>
       </c>
       <c r="AD123" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AE123" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF123" s="0" t="s">
         <v>61</v>
@@ -22388,7 +22391,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>61</v>
@@ -22546,7 +22549,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>61</v>
@@ -22704,7 +22707,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>61</v>
@@ -22862,7 +22865,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>61</v>
@@ -23020,7 +23023,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>61</v>
@@ -23178,7 +23181,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>61</v>
@@ -23336,7 +23339,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>61</v>
@@ -23351,19 +23354,19 @@
         <v>38</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K130" s="0" t="s">
         <v>38</v>
@@ -23372,7 +23375,7 @@
         <v>295</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N130" s="0" t="s">
         <v>61</v>
@@ -23423,10 +23426,10 @@
         <v>38</v>
       </c>
       <c r="AD130" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AE130" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF130" s="0" t="s">
         <v>61</v>
@@ -23486,15 +23489,15 @@
         <v>38</v>
       </c>
       <c r="AY130" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AZ130" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>61</v>
@@ -23509,10 +23512,10 @@
         <v>38</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>38</v>
@@ -23521,16 +23524,16 @@
         <v>309</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K131" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L131" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N131" s="0" t="s">
         <v>61</v>
@@ -23584,7 +23587,7 @@
         <v>454</v>
       </c>
       <c r="AE131" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF131" s="0" t="s">
         <v>61</v>
@@ -23647,12 +23650,12 @@
         <v>390</v>
       </c>
       <c r="AZ131" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>61</v>
@@ -23667,28 +23670,28 @@
         <v>38</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K132" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L132" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N132" s="0" t="s">
         <v>61</v>
@@ -23805,12 +23808,12 @@
         <v>390</v>
       </c>
       <c r="AZ132" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>61</v>
@@ -23828,25 +23831,25 @@
         <v>427</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K133" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L133" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N133" s="0" t="s">
         <v>61</v>
@@ -23879,10 +23882,10 @@
         <v>38</v>
       </c>
       <c r="X133" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Y133" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z133" s="0" t="s">
         <v>61</v>
@@ -23933,10 +23936,10 @@
         <v>38</v>
       </c>
       <c r="AP133" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AQ133" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AR133" s="0" t="s">
         <v>61</v>
@@ -23960,15 +23963,15 @@
         <v>38</v>
       </c>
       <c r="AY133" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AZ133" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>61</v>
@@ -23983,28 +23986,28 @@
         <v>38</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K134" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N134" s="0" t="s">
         <v>61</v>
@@ -24037,10 +24040,10 @@
         <v>38</v>
       </c>
       <c r="X134" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Y134" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Z134" s="0" t="s">
         <v>61</v>
@@ -24118,15 +24121,15 @@
         <v>38</v>
       </c>
       <c r="AY134" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AZ134" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>61</v>
@@ -24141,19 +24144,19 @@
         <v>38</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K135" s="0" t="s">
         <v>38</v>
@@ -24162,7 +24165,7 @@
         <v>235</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N135" s="0" t="s">
         <v>61</v>
@@ -24198,7 +24201,7 @@
         <v>183</v>
       </c>
       <c r="Y135" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Z135" s="0" t="s">
         <v>38</v>
@@ -24207,16 +24210,16 @@
         <v>235</v>
       </c>
       <c r="AB135" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AC135" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD135" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AE135" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF135" s="0" t="s">
         <v>61</v>
@@ -24276,15 +24279,15 @@
         <v>38</v>
       </c>
       <c r="AY135" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AZ135" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>61</v>
@@ -24299,28 +24302,28 @@
         <v>38</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K136" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L136" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N136" s="0" t="s">
         <v>61</v>
@@ -24371,10 +24374,10 @@
         <v>38</v>
       </c>
       <c r="AD136" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AE136" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF136" s="0" t="s">
         <v>61</v>
@@ -24434,15 +24437,15 @@
         <v>38</v>
       </c>
       <c r="AY136" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AZ136" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>61</v>
@@ -24457,28 +24460,28 @@
         <v>38</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K137" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N137" s="0" t="s">
         <v>61</v>
@@ -24592,173 +24595,173 @@
         <v>38</v>
       </c>
       <c r="AY137" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AZ137" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="J138" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L138" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="M138" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="N138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="V138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="W138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="X138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX138" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY138" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="AZ138" s="0" t="s">
         <v>632</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F138" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="H138" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I138" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="J138" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="K138" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L138" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="M138" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="N138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="T138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="V138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="W138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="X138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW138" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX138" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY138" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="AZ138" s="0" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>61</v>
@@ -24773,28 +24776,28 @@
         <v>38</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K139" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L139" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N139" s="0" t="s">
         <v>61</v>
@@ -24908,15 +24911,15 @@
         <v>38</v>
       </c>
       <c r="AY139" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AZ139" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>61</v>
@@ -25003,10 +25006,10 @@
         <v>38</v>
       </c>
       <c r="AD140" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AE140" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF140" s="0" t="s">
         <v>61</v>
@@ -25074,7 +25077,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>61</v>
@@ -25089,19 +25092,19 @@
         <v>38</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K141" s="0" t="s">
         <v>38</v>
@@ -25110,7 +25113,7 @@
         <v>235</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N141" s="0" t="s">
         <v>61</v>
@@ -25224,15 +25227,15 @@
         <v>38</v>
       </c>
       <c r="AY141" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AZ141" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>61</v>
@@ -25247,19 +25250,19 @@
         <v>38</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K142" s="0" t="s">
         <v>38</v>
@@ -25268,7 +25271,7 @@
         <v>235</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N142" s="0" t="s">
         <v>61</v>
@@ -25382,15 +25385,15 @@
         <v>38</v>
       </c>
       <c r="AY142" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AZ142" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>61</v>
@@ -25414,19 +25417,19 @@
         <v>38</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K143" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N143" s="0" t="s">
         <v>61</v>
@@ -25477,10 +25480,10 @@
         <v>38</v>
       </c>
       <c r="AD143" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AE143" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF143" s="0" t="s">
         <v>61</v>
@@ -25548,7 +25551,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>61</v>
@@ -25572,19 +25575,19 @@
         <v>38</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K144" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M144" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N144" s="0" t="s">
         <v>61</v>
@@ -25706,7 +25709,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>61</v>
@@ -25730,19 +25733,19 @@
         <v>38</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K145" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L145" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N145" s="0" t="s">
         <v>61</v>
@@ -25864,43 +25867,43 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H146" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I146" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="J146" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L146" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="M146" s="0" t="s">
         <v>651</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F146" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G146" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H146" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I146" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="J146" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="K146" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L146" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="M146" s="0" t="s">
-        <v>650</v>
       </c>
       <c r="N146" s="0" t="s">
         <v>61</v>
@@ -26022,7 +26025,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>61</v>
@@ -26046,19 +26049,19 @@
         <v>38</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K147" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L147" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N147" s="0" t="s">
         <v>61</v>
@@ -26180,43 +26183,43 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H148" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="J148" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="K148" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L148" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="M148" s="0" t="s">
         <v>655</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G148" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H148" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I148" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="J148" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="K148" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L148" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="M148" s="0" t="s">
-        <v>654</v>
       </c>
       <c r="N148" s="0" t="s">
         <v>61</v>
@@ -26338,7 +26341,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>61</v>
@@ -26362,19 +26365,19 @@
         <v>38</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K149" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N149" s="0" t="s">
         <v>61</v>
@@ -26496,7 +26499,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>61</v>
@@ -26520,19 +26523,19 @@
         <v>38</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K150" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L150" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N150" s="0" t="s">
         <v>61</v>
@@ -26654,7 +26657,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>61</v>
@@ -26678,19 +26681,19 @@
         <v>38</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K151" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L151" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N151" s="0" t="s">
         <v>61</v>
@@ -26812,7 +26815,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>61</v>
@@ -26836,19 +26839,19 @@
         <v>38</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K152" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N152" s="0" t="s">
         <v>61</v>
@@ -26970,7 +26973,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>61</v>
@@ -27057,10 +27060,10 @@
         <v>38</v>
       </c>
       <c r="AD153" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AE153" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF153" s="0" t="s">
         <v>61</v>
@@ -27128,7 +27131,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>61</v>
@@ -27215,10 +27218,10 @@
         <v>38</v>
       </c>
       <c r="AD154" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AE154" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF154" s="0" t="s">
         <v>61</v>
@@ -27286,7 +27289,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>61</v>
@@ -27310,10 +27313,10 @@
         <v>38</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K155" s="0" t="s">
         <v>61</v>
@@ -27444,34 +27447,34 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I156" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="J156" s="0" t="s">
         <v>671</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F156" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G156" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H156" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I156" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="J156" s="0" t="s">
-        <v>670</v>
       </c>
       <c r="K156" s="0" t="s">
         <v>61</v>
@@ -27602,7 +27605,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>61</v>
@@ -27626,10 +27629,10 @@
         <v>38</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K157" s="0" t="s">
         <v>61</v>
@@ -27760,7 +27763,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>61</v>
@@ -27918,7 +27921,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>61</v>
@@ -28076,7 +28079,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>61</v>
@@ -28234,7 +28237,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>61</v>
@@ -28392,7 +28395,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>61</v>
@@ -28550,7 +28553,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>61</v>
@@ -28574,10 +28577,10 @@
         <v>38</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K163" s="0" t="s">
         <v>61</v>
@@ -28708,7 +28711,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>61</v>
@@ -28741,10 +28744,10 @@
         <v>38</v>
       </c>
       <c r="L164" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N164" s="0" t="s">
         <v>61</v>
@@ -28866,7 +28869,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>61</v>
@@ -28953,10 +28956,10 @@
         <v>38</v>
       </c>
       <c r="AD165" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AE165" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF165" s="0" t="s">
         <v>61</v>
@@ -29024,7 +29027,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>61</v>
@@ -29182,7 +29185,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>61</v>
@@ -29269,10 +29272,10 @@
         <v>38</v>
       </c>
       <c r="AD167" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AE167" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF167" s="0" t="s">
         <v>61</v>
@@ -29340,7 +29343,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>61</v>
@@ -29373,10 +29376,10 @@
         <v>38</v>
       </c>
       <c r="L168" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N168" s="0" t="s">
         <v>61</v>
@@ -29427,10 +29430,10 @@
         <v>38</v>
       </c>
       <c r="AD168" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AE168" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF168" s="0" t="s">
         <v>61</v>
@@ -29490,15 +29493,15 @@
         <v>38</v>
       </c>
       <c r="AY168" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AZ168" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>61</v>
@@ -29531,10 +29534,10 @@
         <v>38</v>
       </c>
       <c r="L169" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N169" s="0" t="s">
         <v>61</v>
@@ -29585,10 +29588,10 @@
         <v>38</v>
       </c>
       <c r="AD169" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AE169" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF169" s="0" t="s">
         <v>61</v>
@@ -29648,15 +29651,15 @@
         <v>38</v>
       </c>
       <c r="AY169" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AZ169" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>61</v>
@@ -29746,7 +29749,7 @@
         <v>408</v>
       </c>
       <c r="AE170" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AF170" s="0" t="s">
         <v>61</v>
@@ -29814,7 +29817,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>61</v>
@@ -29847,10 +29850,10 @@
         <v>38</v>
       </c>
       <c r="L171" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N171" s="0" t="s">
         <v>61</v>
@@ -29972,7 +29975,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>61</v>
@@ -30059,10 +30062,10 @@
         <v>38</v>
       </c>
       <c r="AD172" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AE172" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF172" s="0" t="s">
         <v>61</v>
@@ -30130,7 +30133,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>61</v>
@@ -30145,28 +30148,28 @@
         <v>38</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H173" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K173" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L173" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N173" s="0" t="s">
         <v>61</v>
@@ -30202,7 +30205,7 @@
         <v>304</v>
       </c>
       <c r="Y173" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Z173" s="0" t="s">
         <v>61</v>
@@ -30220,7 +30223,7 @@
         <v>306</v>
       </c>
       <c r="AE173" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF173" s="0" t="s">
         <v>61</v>
@@ -30280,15 +30283,15 @@
         <v>38</v>
       </c>
       <c r="AY173" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AZ173" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>61</v>
@@ -30306,7 +30309,7 @@
         <v>219</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H174" s="0" t="s">
         <v>38</v>
@@ -30315,16 +30318,16 @@
         <v>440</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K174" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L174" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N174" s="0" t="s">
         <v>61</v>
@@ -30360,7 +30363,7 @@
         <v>120</v>
       </c>
       <c r="Y174" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Z174" s="0" t="s">
         <v>61</v>
@@ -30378,7 +30381,7 @@
         <v>315</v>
       </c>
       <c r="AE174" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF174" s="0" t="s">
         <v>61</v>
@@ -30438,15 +30441,15 @@
         <v>38</v>
       </c>
       <c r="AY174" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ174" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>61</v>
@@ -30461,10 +30464,10 @@
         <v>38</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H175" s="0" t="s">
         <v>38</v>
@@ -30473,16 +30476,16 @@
         <v>440</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K175" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L175" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N175" s="0" t="s">
         <v>61</v>
@@ -30518,7 +30521,7 @@
         <v>138</v>
       </c>
       <c r="Y175" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z175" s="0" t="s">
         <v>61</v>
@@ -30533,10 +30536,10 @@
         <v>38</v>
       </c>
       <c r="AD175" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE175" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AF175" s="0" t="s">
         <v>61</v>
@@ -30596,15 +30599,15 @@
         <v>38</v>
       </c>
       <c r="AY175" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ175" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>61</v>
@@ -30619,28 +30622,28 @@
         <v>38</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H176" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K176" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L176" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N176" s="0" t="s">
         <v>61</v>
@@ -30691,10 +30694,10 @@
         <v>38</v>
       </c>
       <c r="AD176" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AE176" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF176" s="0" t="s">
         <v>61</v>
@@ -30754,15 +30757,15 @@
         <v>38</v>
       </c>
       <c r="AY176" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AZ176" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>61</v>
@@ -30777,28 +30780,28 @@
         <v>38</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H177" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K177" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L177" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N177" s="0" t="s">
         <v>61</v>
@@ -30831,10 +30834,10 @@
         <v>38</v>
       </c>
       <c r="X177" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Y177" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z177" s="0" t="s">
         <v>61</v>
@@ -30849,10 +30852,10 @@
         <v>38</v>
       </c>
       <c r="AD177" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AE177" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF177" s="0" t="s">
         <v>61</v>
@@ -30912,173 +30915,173 @@
         <v>38</v>
       </c>
       <c r="AY177" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AZ177" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="G178" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="H178" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I178" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="J178" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="K178" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L178" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="M178" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="N178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="V178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="W178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="X178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC178" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD178" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE178" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="AF178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW178" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX178" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY178" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="AZ178" s="0" t="s">
         <v>723</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F178" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="G178" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="H178" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I178" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="J178" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="K178" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L178" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="M178" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="N178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="T178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="V178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="W178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="X178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC178" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD178" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="AE178" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="AF178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW178" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX178" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY178" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="AZ178" s="0" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>61</v>
@@ -31093,28 +31096,28 @@
         <v>38</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H179" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K179" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L179" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N179" s="0" t="s">
         <v>61</v>
@@ -31165,10 +31168,10 @@
         <v>38</v>
       </c>
       <c r="AD179" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AE179" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AF179" s="0" t="s">
         <v>61</v>
@@ -31228,15 +31231,15 @@
         <v>38</v>
       </c>
       <c r="AY179" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AZ179" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>61</v>
@@ -31251,10 +31254,10 @@
         <v>38</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H180" s="0" t="s">
         <v>38</v>
@@ -31263,16 +31266,16 @@
         <v>438</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K180" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L180" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N180" s="0" t="s">
         <v>61</v>
@@ -31317,16 +31320,16 @@
         <v>257</v>
       </c>
       <c r="AB180" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AC180" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD180" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AE180" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF180" s="0" t="s">
         <v>61</v>
@@ -31386,15 +31389,15 @@
         <v>38</v>
       </c>
       <c r="AY180" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AZ180" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>61</v>
@@ -31409,10 +31412,10 @@
         <v>38</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H181" s="0" t="s">
         <v>38</v>
@@ -31421,16 +31424,16 @@
         <v>438</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K181" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L181" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M181" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N181" s="0" t="s">
         <v>61</v>
@@ -31475,16 +31478,16 @@
         <v>257</v>
       </c>
       <c r="AB181" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AC181" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD181" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AE181" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF181" s="0" t="s">
         <v>61</v>
@@ -31544,15 +31547,15 @@
         <v>38</v>
       </c>
       <c r="AY181" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AZ181" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>61</v>
@@ -31567,10 +31570,10 @@
         <v>38</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H182" s="0" t="s">
         <v>38</v>
@@ -31579,16 +31582,16 @@
         <v>438</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K182" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L182" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M182" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N182" s="0" t="s">
         <v>61</v>
@@ -31642,7 +31645,7 @@
         <v>171</v>
       </c>
       <c r="AE182" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF182" s="0" t="s">
         <v>61</v>
@@ -31702,15 +31705,15 @@
         <v>38</v>
       </c>
       <c r="AY182" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AZ182" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>61</v>
@@ -31725,10 +31728,10 @@
         <v>38</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H183" s="0" t="s">
         <v>38</v>
@@ -31737,16 +31740,16 @@
         <v>438</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K183" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M183" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N183" s="0" t="s">
         <v>61</v>
@@ -31800,7 +31803,7 @@
         <v>171</v>
       </c>
       <c r="AE183" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF183" s="0" t="s">
         <v>61</v>
@@ -31860,15 +31863,15 @@
         <v>38</v>
       </c>
       <c r="AY183" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AZ183" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>61</v>
@@ -31883,10 +31886,10 @@
         <v>38</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H184" s="0" t="s">
         <v>38</v>
@@ -31895,16 +31898,16 @@
         <v>438</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K184" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L184" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N184" s="0" t="s">
         <v>61</v>
@@ -31958,7 +31961,7 @@
         <v>171</v>
       </c>
       <c r="AE184" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF184" s="0" t="s">
         <v>61</v>
@@ -32018,15 +32021,15 @@
         <v>38</v>
       </c>
       <c r="AY184" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AZ184" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>61</v>
@@ -32041,10 +32044,10 @@
         <v>38</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H185" s="0" t="s">
         <v>38</v>
@@ -32053,16 +32056,16 @@
         <v>438</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K185" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L185" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N185" s="0" t="s">
         <v>61</v>
@@ -32107,16 +32110,16 @@
         <v>257</v>
       </c>
       <c r="AB185" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AC185" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD185" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AE185" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF185" s="0" t="s">
         <v>61</v>
@@ -32176,15 +32179,15 @@
         <v>38</v>
       </c>
       <c r="AY185" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AZ185" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>61</v>
@@ -32199,10 +32202,10 @@
         <v>38</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>38</v>
@@ -32211,16 +32214,16 @@
         <v>438</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K186" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L186" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M186" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N186" s="0" t="s">
         <v>61</v>
@@ -32274,7 +32277,7 @@
         <v>171</v>
       </c>
       <c r="AE186" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF186" s="0" t="s">
         <v>61</v>
@@ -32334,15 +32337,15 @@
         <v>38</v>
       </c>
       <c r="AY186" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AZ186" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>61</v>
@@ -32357,10 +32360,10 @@
         <v>38</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H187" s="0" t="s">
         <v>38</v>
@@ -32369,16 +32372,16 @@
         <v>438</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K187" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N187" s="0" t="s">
         <v>61</v>
@@ -32432,7 +32435,7 @@
         <v>171</v>
       </c>
       <c r="AE187" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF187" s="0" t="s">
         <v>61</v>
@@ -32492,15 +32495,15 @@
         <v>38</v>
       </c>
       <c r="AY187" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AZ187" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>61</v>
@@ -32515,7 +32518,7 @@
         <v>38</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G188" s="0" t="s">
         <v>61</v>
@@ -32533,7 +32536,7 @@
         <v>38</v>
       </c>
       <c r="L188" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M188" s="0" t="s">
         <v>61</v>
@@ -32587,7 +32590,7 @@
         <v>38</v>
       </c>
       <c r="AD188" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AE188" s="0" t="s">
         <v>61</v>
@@ -32650,7 +32653,7 @@
         <v>38</v>
       </c>
       <c r="AY188" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AZ188" s="0" t="s">
         <v>61</v>
@@ -32658,7 +32661,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>61</v>
@@ -32682,7 +32685,7 @@
         <v>38</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J189" s="0" t="s">
         <v>61</v>
@@ -32691,7 +32694,7 @@
         <v>38</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M189" s="0" t="s">
         <v>61</v>
@@ -32745,7 +32748,7 @@
         <v>38</v>
       </c>
       <c r="AD189" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AE189" s="0" t="s">
         <v>61</v>
@@ -32808,7 +32811,7 @@
         <v>38</v>
       </c>
       <c r="AY189" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AZ189" s="0" t="s">
         <v>61</v>
@@ -32816,7 +32819,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>61</v>
@@ -32831,7 +32834,7 @@
         <v>38</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G190" s="0" t="s">
         <v>61</v>
@@ -32840,7 +32843,7 @@
         <v>38</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J190" s="0" t="s">
         <v>61</v>
@@ -32849,7 +32852,7 @@
         <v>38</v>
       </c>
       <c r="L190" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M190" s="0" t="s">
         <v>61</v>
@@ -32903,7 +32906,7 @@
         <v>38</v>
       </c>
       <c r="AD190" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE190" s="0" t="s">
         <v>61</v>
@@ -32966,7 +32969,7 @@
         <v>38</v>
       </c>
       <c r="AY190" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AZ190" s="0" t="s">
         <v>61</v>
@@ -32974,7 +32977,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>61</v>
@@ -32998,7 +33001,7 @@
         <v>38</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J191" s="0" t="s">
         <v>61</v>
@@ -33007,7 +33010,7 @@
         <v>38</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M191" s="0" t="s">
         <v>61</v>
@@ -33061,7 +33064,7 @@
         <v>38</v>
       </c>
       <c r="AD191" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AE191" s="0" t="s">
         <v>61</v>
@@ -33124,7 +33127,7 @@
         <v>38</v>
       </c>
       <c r="AY191" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AZ191" s="0" t="s">
         <v>61</v>
@@ -33132,7 +33135,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>61</v>
@@ -33147,7 +33150,7 @@
         <v>38</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G192" s="0" t="s">
         <v>61</v>
@@ -33165,7 +33168,7 @@
         <v>38</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M192" s="0" t="s">
         <v>61</v>
@@ -33219,7 +33222,7 @@
         <v>38</v>
       </c>
       <c r="AD192" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE192" s="0" t="s">
         <v>61</v>
@@ -33282,7 +33285,7 @@
         <v>38</v>
       </c>
       <c r="AY192" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AZ192" s="0" t="s">
         <v>61</v>
@@ -33290,7 +33293,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>61</v>
@@ -33305,7 +33308,7 @@
         <v>38</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G193" s="0" t="s">
         <v>61</v>
@@ -33314,7 +33317,7 @@
         <v>38</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J193" s="0" t="s">
         <v>61</v>
@@ -33323,7 +33326,7 @@
         <v>38</v>
       </c>
       <c r="L193" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M193" s="0" t="s">
         <v>61</v>
@@ -33377,7 +33380,7 @@
         <v>38</v>
       </c>
       <c r="AD193" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE193" s="0" t="s">
         <v>61</v>
@@ -33440,7 +33443,7 @@
         <v>38</v>
       </c>
       <c r="AY193" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AZ193" s="0" t="s">
         <v>61</v>
@@ -33448,7 +33451,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>61</v>
@@ -33463,19 +33466,19 @@
         <v>38</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H194" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="K194" s="0" t="s">
         <v>38</v>
@@ -33484,7 +33487,7 @@
         <v>212</v>
       </c>
       <c r="M194" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N194" s="0" t="s">
         <v>61</v>
@@ -33535,10 +33538,10 @@
         <v>38</v>
       </c>
       <c r="AD194" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AE194" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF194" s="0" t="s">
         <v>61</v>
@@ -33598,15 +33601,15 @@
         <v>38</v>
       </c>
       <c r="AY194" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AZ194" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>61</v>
@@ -33621,19 +33624,19 @@
         <v>38</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H195" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="K195" s="0" t="s">
         <v>38</v>
@@ -33642,7 +33645,7 @@
         <v>219</v>
       </c>
       <c r="M195" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N195" s="0" t="s">
         <v>61</v>
@@ -33693,10 +33696,10 @@
         <v>38</v>
       </c>
       <c r="AD195" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AE195" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF195" s="0" t="s">
         <v>61</v>
@@ -33756,15 +33759,15 @@
         <v>38</v>
       </c>
       <c r="AY195" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AZ195" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>61</v>
@@ -33779,19 +33782,19 @@
         <v>38</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H196" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K196" s="0" t="s">
         <v>38</v>
@@ -33800,7 +33803,7 @@
         <v>219</v>
       </c>
       <c r="M196" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N196" s="0" t="s">
         <v>61</v>
@@ -33851,10 +33854,10 @@
         <v>38</v>
       </c>
       <c r="AD196" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AE196" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF196" s="0" t="s">
         <v>61</v>
@@ -33914,15 +33917,15 @@
         <v>38</v>
       </c>
       <c r="AY196" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AZ196" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>61</v>
@@ -33937,19 +33940,19 @@
         <v>38</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H197" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K197" s="0" t="s">
         <v>38</v>
@@ -33958,7 +33961,7 @@
         <v>212</v>
       </c>
       <c r="M197" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N197" s="0" t="s">
         <v>61</v>
@@ -34012,7 +34015,7 @@
         <v>212</v>
       </c>
       <c r="AE197" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF197" s="0" t="s">
         <v>61</v>
@@ -34072,15 +34075,15 @@
         <v>38</v>
       </c>
       <c r="AY197" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AZ197" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>61</v>
@@ -34095,19 +34098,19 @@
         <v>38</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H198" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K198" s="0" t="s">
         <v>38</v>
@@ -34116,7 +34119,7 @@
         <v>219</v>
       </c>
       <c r="M198" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N198" s="0" t="s">
         <v>61</v>
@@ -34170,7 +34173,7 @@
         <v>441</v>
       </c>
       <c r="AE198" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF198" s="0" t="s">
         <v>61</v>
@@ -34230,15 +34233,15 @@
         <v>38</v>
       </c>
       <c r="AY198" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AZ198" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>61</v>
@@ -34253,19 +34256,19 @@
         <v>38</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H199" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K199" s="0" t="s">
         <v>38</v>
@@ -34274,7 +34277,7 @@
         <v>219</v>
       </c>
       <c r="M199" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N199" s="0" t="s">
         <v>61</v>
@@ -34328,7 +34331,7 @@
         <v>219</v>
       </c>
       <c r="AE199" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF199" s="0" t="s">
         <v>61</v>
@@ -34388,15 +34391,15 @@
         <v>38</v>
       </c>
       <c r="AY199" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AZ199" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>61</v>
@@ -34411,28 +34414,28 @@
         <v>38</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H200" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="K200" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L200" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M200" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N200" s="0" t="s">
         <v>61</v>
@@ -34486,7 +34489,7 @@
         <v>212</v>
       </c>
       <c r="AE200" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AF200" s="0" t="s">
         <v>61</v>
@@ -34546,15 +34549,15 @@
         <v>38</v>
       </c>
       <c r="AY200" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AZ200" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>61</v>
@@ -34572,25 +34575,25 @@
         <v>219</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H201" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="K201" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L201" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M201" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N201" s="0" t="s">
         <v>61</v>
@@ -34626,7 +34629,7 @@
         <v>238</v>
       </c>
       <c r="Y201" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="Z201" s="0" t="s">
         <v>61</v>
@@ -34641,10 +34644,10 @@
         <v>38</v>
       </c>
       <c r="AD201" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AE201" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF201" s="0" t="s">
         <v>61</v>
@@ -34704,15 +34707,15 @@
         <v>38</v>
       </c>
       <c r="AY201" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AZ201" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>61</v>
@@ -34727,28 +34730,28 @@
         <v>38</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H202" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K202" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L202" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M202" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N202" s="0" t="s">
         <v>61</v>
@@ -34802,7 +34805,7 @@
         <v>219</v>
       </c>
       <c r="AE202" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF202" s="0" t="s">
         <v>61</v>
@@ -34862,15 +34865,15 @@
         <v>38</v>
       </c>
       <c r="AY202" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AZ202" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>61</v>
@@ -34888,25 +34891,25 @@
         <v>296</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H203" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K203" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L203" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M203" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N203" s="0" t="s">
         <v>61</v>
@@ -34957,10 +34960,10 @@
         <v>38</v>
       </c>
       <c r="AD203" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AE203" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF203" s="0" t="s">
         <v>61</v>
@@ -35020,15 +35023,15 @@
         <v>38</v>
       </c>
       <c r="AY203" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AZ203" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>61</v>
@@ -35046,25 +35049,25 @@
         <v>178</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H204" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K204" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L204" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M204" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N204" s="0" t="s">
         <v>61</v>
@@ -35097,10 +35100,10 @@
         <v>38</v>
       </c>
       <c r="X204" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Y204" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z204" s="0" t="s">
         <v>61</v>
@@ -35115,10 +35118,10 @@
         <v>38</v>
       </c>
       <c r="AD204" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AE204" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF204" s="0" t="s">
         <v>61</v>
@@ -35181,12 +35184,12 @@
         <v>106</v>
       </c>
       <c r="AZ204" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B205" s="0" t="s">
         <v>61</v>
@@ -35204,25 +35207,25 @@
         <v>178</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H205" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="K205" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L205" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M205" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N205" s="0" t="s">
         <v>61</v>
@@ -35273,10 +35276,10 @@
         <v>38</v>
       </c>
       <c r="AD205" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AE205" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF205" s="0" t="s">
         <v>61</v>
@@ -35336,15 +35339,15 @@
         <v>38</v>
       </c>
       <c r="AY205" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AZ205" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>61</v>
@@ -35368,7 +35371,7 @@
         <v>38</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J206" s="0" t="s">
         <v>61</v>
@@ -35377,7 +35380,7 @@
         <v>38</v>
       </c>
       <c r="L206" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M206" s="0" t="s">
         <v>61</v>
@@ -35431,7 +35434,7 @@
         <v>38</v>
       </c>
       <c r="AD206" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AE206" s="0" t="s">
         <v>61</v>
@@ -35494,7 +35497,7 @@
         <v>38</v>
       </c>
       <c r="AY206" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AZ206" s="0" t="s">
         <v>61</v>
@@ -35502,7 +35505,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>61</v>
@@ -35526,7 +35529,7 @@
         <v>38</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="J207" s="0" t="s">
         <v>61</v>
@@ -35535,7 +35538,7 @@
         <v>38</v>
       </c>
       <c r="L207" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M207" s="0" t="s">
         <v>61</v>
@@ -35589,7 +35592,7 @@
         <v>38</v>
       </c>
       <c r="AD207" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AE207" s="0" t="s">
         <v>61</v>
@@ -35652,7 +35655,7 @@
         <v>38</v>
       </c>
       <c r="AY207" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AZ207" s="0" t="s">
         <v>61</v>
@@ -35660,7 +35663,7 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>61</v>
@@ -35684,7 +35687,7 @@
         <v>38</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="J208" s="0" t="s">
         <v>61</v>
@@ -35693,7 +35696,7 @@
         <v>38</v>
       </c>
       <c r="L208" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M208" s="0" t="s">
         <v>61</v>
@@ -35747,7 +35750,7 @@
         <v>38</v>
       </c>
       <c r="AD208" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AE208" s="0" t="s">
         <v>61</v>
@@ -35810,7 +35813,7 @@
         <v>38</v>
       </c>
       <c r="AY208" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AZ208" s="0" t="s">
         <v>61</v>
@@ -35818,157 +35821,157 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H209" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I209" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="J209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K209" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L209" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="M209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="V209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="W209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="X209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC209" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD209" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="AE209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW209" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX209" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY209" s="0" t="s">
         <v>823</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H209" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I209" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="J209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K209" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L209" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="M209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="N209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="T209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="V209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="W209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="X209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC209" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD209" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="AE209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW209" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX209" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY209" s="0" t="s">
-        <v>822</v>
       </c>
       <c r="AZ209" s="0" t="s">
         <v>61</v>
@@ -35976,7 +35979,7 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B210" s="0" t="s">
         <v>61</v>
@@ -36000,7 +36003,7 @@
         <v>38</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J210" s="0" t="s">
         <v>61</v>
@@ -36009,7 +36012,7 @@
         <v>38</v>
       </c>
       <c r="L210" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M210" s="0" t="s">
         <v>61</v>
@@ -36063,7 +36066,7 @@
         <v>38</v>
       </c>
       <c r="AD210" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AE210" s="0" t="s">
         <v>61</v>
@@ -36126,7 +36129,7 @@
         <v>38</v>
       </c>
       <c r="AY210" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AZ210" s="0" t="s">
         <v>61</v>
@@ -36134,7 +36137,7 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>61</v>
@@ -36158,7 +36161,7 @@
         <v>38</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J211" s="0" t="s">
         <v>61</v>
@@ -36167,7 +36170,7 @@
         <v>38</v>
       </c>
       <c r="L211" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M211" s="0" t="s">
         <v>61</v>
@@ -36221,7 +36224,7 @@
         <v>38</v>
       </c>
       <c r="AD211" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AE211" s="0" t="s">
         <v>61</v>
@@ -36284,7 +36287,7 @@
         <v>38</v>
       </c>
       <c r="AY211" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AZ211" s="0" t="s">
         <v>61</v>
@@ -36292,7 +36295,7 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>61</v>
@@ -36316,7 +36319,7 @@
         <v>38</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J212" s="0" t="s">
         <v>61</v>
@@ -36325,7 +36328,7 @@
         <v>38</v>
       </c>
       <c r="L212" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="M212" s="0" t="s">
         <v>61</v>
@@ -36379,7 +36382,7 @@
         <v>38</v>
       </c>
       <c r="AD212" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AE212" s="0" t="s">
         <v>61</v>
@@ -36442,7 +36445,7 @@
         <v>38</v>
       </c>
       <c r="AY212" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AZ212" s="0" t="s">
         <v>61</v>
@@ -36450,7 +36453,7 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>61</v>
@@ -36474,7 +36477,7 @@
         <v>38</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="J213" s="0" t="s">
         <v>61</v>
@@ -36483,7 +36486,7 @@
         <v>38</v>
       </c>
       <c r="L213" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="M213" s="0" t="s">
         <v>61</v>
@@ -36537,7 +36540,7 @@
         <v>38</v>
       </c>
       <c r="AD213" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AE213" s="0" t="s">
         <v>61</v>
@@ -36600,7 +36603,7 @@
         <v>38</v>
       </c>
       <c r="AY213" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AZ213" s="0" t="s">
         <v>61</v>
@@ -36608,157 +36611,157 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H214" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I214" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="J214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K214" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L214" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="M214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="V214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="W214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="X214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC214" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD214" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="AE214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX214" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY214" s="0" t="s">
         <v>837</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H214" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I214" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="J214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K214" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L214" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="M214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="N214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="T214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="V214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="W214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="X214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC214" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD214" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="AE214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW214" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX214" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY214" s="0" t="s">
-        <v>836</v>
       </c>
       <c r="AZ214" s="0" t="s">
         <v>61</v>
@@ -36766,32 +36769,32 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H215" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I215" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="B215" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D215" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E215" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F215" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G215" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H215" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I215" s="0" t="s">
-        <v>838</v>
-      </c>
       <c r="J215" s="0" t="s">
         <v>61</v>
       </c>
@@ -36799,7 +36802,7 @@
         <v>38</v>
       </c>
       <c r="L215" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M215" s="0" t="s">
         <v>61</v>
@@ -36853,7 +36856,7 @@
         <v>38</v>
       </c>
       <c r="AD215" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AE215" s="0" t="s">
         <v>61</v>
@@ -36916,7 +36919,7 @@
         <v>38</v>
       </c>
       <c r="AY215" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AZ215" s="0" t="s">
         <v>61</v>
@@ -36924,7 +36927,7 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B216" s="0" t="s">
         <v>61</v>
@@ -36948,7 +36951,7 @@
         <v>38</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J216" s="0" t="s">
         <v>61</v>
@@ -36957,7 +36960,7 @@
         <v>38</v>
       </c>
       <c r="L216" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M216" s="0" t="s">
         <v>61</v>
@@ -37011,7 +37014,7 @@
         <v>38</v>
       </c>
       <c r="AD216" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AE216" s="0" t="s">
         <v>61</v>
@@ -37082,7 +37085,7 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B217" s="0" t="s">
         <v>61</v>
@@ -37106,7 +37109,7 @@
         <v>38</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J217" s="0" t="s">
         <v>61</v>
@@ -37115,7 +37118,7 @@
         <v>38</v>
       </c>
       <c r="L217" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M217" s="0" t="s">
         <v>61</v>
@@ -37169,7 +37172,7 @@
         <v>38</v>
       </c>
       <c r="AD217" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AE217" s="0" t="s">
         <v>61</v>
@@ -37232,7 +37235,7 @@
         <v>38</v>
       </c>
       <c r="AY217" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AZ217" s="0" t="s">
         <v>61</v>
@@ -37240,7 +37243,7 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>61</v>
@@ -37264,7 +37267,7 @@
         <v>38</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J218" s="0" t="s">
         <v>61</v>
@@ -37273,7 +37276,7 @@
         <v>38</v>
       </c>
       <c r="L218" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M218" s="0" t="s">
         <v>61</v>
@@ -37327,7 +37330,7 @@
         <v>38</v>
       </c>
       <c r="AD218" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AE218" s="0" t="s">
         <v>61</v>
@@ -37390,7 +37393,7 @@
         <v>38</v>
       </c>
       <c r="AY218" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AZ218" s="0" t="s">
         <v>61</v>
@@ -37398,7 +37401,7 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>61</v>
@@ -37422,7 +37425,7 @@
         <v>38</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J219" s="0" t="s">
         <v>61</v>
@@ -37431,7 +37434,7 @@
         <v>38</v>
       </c>
       <c r="L219" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M219" s="0" t="s">
         <v>61</v>
@@ -37485,7 +37488,7 @@
         <v>38</v>
       </c>
       <c r="AD219" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AE219" s="0" t="s">
         <v>61</v>
@@ -37548,7 +37551,7 @@
         <v>38</v>
       </c>
       <c r="AY219" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AZ219" s="0" t="s">
         <v>61</v>
@@ -37556,7 +37559,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>61</v>
@@ -37589,7 +37592,7 @@
         <v>38</v>
       </c>
       <c r="L220" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M220" s="0" t="s">
         <v>61</v>
@@ -37643,7 +37646,7 @@
         <v>38</v>
       </c>
       <c r="AD220" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AE220" s="0" t="s">
         <v>61</v>
@@ -37706,7 +37709,7 @@
         <v>38</v>
       </c>
       <c r="AY220" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AZ220" s="0" t="s">
         <v>61</v>
@@ -37714,7 +37717,7 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>61</v>
@@ -37741,16 +37744,16 @@
         <v>160</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="K221" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L221" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="M221" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N221" s="0" t="s">
         <v>61</v>
@@ -37801,10 +37804,10 @@
         <v>38</v>
       </c>
       <c r="AD221" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AE221" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AF221" s="0" t="s">
         <v>61</v>
@@ -37864,15 +37867,15 @@
         <v>38</v>
       </c>
       <c r="AY221" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AZ221" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B222" s="0" t="s">
         <v>61</v>
@@ -37899,16 +37902,16 @@
         <v>201</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K222" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L222" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M222" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="N222" s="0" t="s">
         <v>61</v>
@@ -37959,10 +37962,10 @@
         <v>38</v>
       </c>
       <c r="AD222" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AE222" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF222" s="0" t="s">
         <v>61</v>
@@ -38022,15 +38025,15 @@
         <v>38</v>
       </c>
       <c r="AY222" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AZ222" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>61</v>
@@ -38054,19 +38057,19 @@
         <v>38</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="K223" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M223" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N223" s="0" t="s">
         <v>61</v>
@@ -38180,24 +38183,24 @@
         <v>38</v>
       </c>
       <c r="AY223" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AZ223" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>38</v>
@@ -38206,25 +38209,25 @@
         <v>148</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H224" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K224" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L224" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M224" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N224" s="0" t="s">
         <v>38</v>
@@ -38239,10 +38242,10 @@
         <v>38</v>
       </c>
       <c r="R224" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="S224" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="T224" s="0" t="s">
         <v>38</v>
@@ -38251,13 +38254,13 @@
         <v>51</v>
       </c>
       <c r="V224" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="W224" s="0" t="s">
         <v>38</v>
       </c>
       <c r="X224" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="Y224" s="0" t="s">
         <v>54</v>
@@ -38275,10 +38278,10 @@
         <v>38</v>
       </c>
       <c r="AD224" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AE224" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AF224" s="0" t="s">
         <v>38</v>
@@ -38311,25 +38314,25 @@
         <v>38</v>
       </c>
       <c r="AP224" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AQ224" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AR224" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AS224" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AT224" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AU224" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AV224" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AW224" s="0" t="s">
         <v>69</v>
@@ -38338,24 +38341,24 @@
         <v>38</v>
       </c>
       <c r="AY224" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AZ224" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E225" s="0" t="s">
         <v>38</v>
@@ -38370,10 +38373,10 @@
         <v>38</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K225" s="0" t="s">
         <v>38</v>
@@ -38382,7 +38385,7 @@
         <v>116</v>
       </c>
       <c r="M225" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N225" s="0" t="s">
         <v>38</v>
@@ -38400,7 +38403,7 @@
         <v>247</v>
       </c>
       <c r="S225" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T225" s="0" t="s">
         <v>38</v>
@@ -38436,7 +38439,7 @@
         <v>281</v>
       </c>
       <c r="AE225" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF225" s="0" t="s">
         <v>38</v>
@@ -38469,10 +38472,10 @@
         <v>38</v>
       </c>
       <c r="AP225" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AQ225" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AR225" s="0" t="s">
         <v>38</v>
@@ -38481,7 +38484,7 @@
         <v>253</v>
       </c>
       <c r="AT225" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AU225" s="0" t="s">
         <v>38</v>
@@ -38496,24 +38499,24 @@
         <v>38</v>
       </c>
       <c r="AY225" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AZ225" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E226" s="0" t="s">
         <v>38</v>
@@ -38528,10 +38531,10 @@
         <v>38</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K226" s="0" t="s">
         <v>38</v>
@@ -38540,7 +38543,7 @@
         <v>233</v>
       </c>
       <c r="M226" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N226" s="0" t="s">
         <v>38</v>
@@ -38558,7 +38561,7 @@
         <v>247</v>
       </c>
       <c r="S226" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T226" s="0" t="s">
         <v>38</v>
@@ -38594,7 +38597,7 @@
         <v>281</v>
       </c>
       <c r="AE226" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF226" s="0" t="s">
         <v>38</v>
@@ -38627,10 +38630,10 @@
         <v>38</v>
       </c>
       <c r="AP226" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AQ226" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AR226" s="0" t="s">
         <v>38</v>
@@ -38639,7 +38642,7 @@
         <v>253</v>
       </c>
       <c r="AT226" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AU226" s="0" t="s">
         <v>38</v>
@@ -38654,15 +38657,15 @@
         <v>38</v>
       </c>
       <c r="AY226" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AZ226" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>38</v>
@@ -38671,16 +38674,16 @@
         <v>39</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E227" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H227" s="0" t="s">
         <v>38</v>
@@ -38689,16 +38692,16 @@
         <v>43</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K227" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L227" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M227" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N227" s="0" t="s">
         <v>38</v>
@@ -38716,7 +38719,7 @@
         <v>49</v>
       </c>
       <c r="S227" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="T227" s="0" t="s">
         <v>38</v>
@@ -38725,7 +38728,7 @@
         <v>51</v>
       </c>
       <c r="V227" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="W227" s="0" t="s">
         <v>38</v>
@@ -38740,7 +38743,7 @@
         <v>38</v>
       </c>
       <c r="AA227" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AB227" s="0" t="s">
         <v>241</v>
@@ -38749,10 +38752,10 @@
         <v>38</v>
       </c>
       <c r="AD227" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AE227" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AF227" s="0" t="s">
         <v>38</v>
@@ -38788,22 +38791,22 @@
         <v>64</v>
       </c>
       <c r="AQ227" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AR227" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AS227" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AT227" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AU227" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AV227" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AW227" s="0" t="s">
         <v>69</v>
@@ -38812,42 +38815,42 @@
         <v>38</v>
       </c>
       <c r="AY227" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AZ227" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B228" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E228" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H228" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J228" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K228" s="0" t="s">
         <v>38</v>
@@ -38856,7 +38859,7 @@
         <v>417</v>
       </c>
       <c r="M228" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N228" s="0" t="s">
         <v>38</v>
@@ -38874,7 +38877,7 @@
         <v>247</v>
       </c>
       <c r="S228" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T228" s="0" t="s">
         <v>38</v>
@@ -38910,7 +38913,7 @@
         <v>179</v>
       </c>
       <c r="AE228" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AF228" s="0" t="s">
         <v>38</v>
@@ -38943,10 +38946,10 @@
         <v>38</v>
       </c>
       <c r="AP228" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AQ228" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AR228" s="0" t="s">
         <v>38</v>
@@ -38955,7 +38958,7 @@
         <v>253</v>
       </c>
       <c r="AT228" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AU228" s="0" t="s">
         <v>38</v>
@@ -38970,42 +38973,42 @@
         <v>38</v>
       </c>
       <c r="AY228" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AZ228" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E229" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H229" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K229" s="0" t="s">
         <v>38</v>
@@ -39014,7 +39017,7 @@
         <v>417</v>
       </c>
       <c r="M229" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N229" s="0" t="s">
         <v>38</v>
@@ -39032,7 +39035,7 @@
         <v>247</v>
       </c>
       <c r="S229" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T229" s="0" t="s">
         <v>38</v>
@@ -39068,7 +39071,7 @@
         <v>281</v>
       </c>
       <c r="AE229" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF229" s="0" t="s">
         <v>38</v>
@@ -39113,7 +39116,7 @@
         <v>253</v>
       </c>
       <c r="AT229" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AU229" s="0" t="s">
         <v>38</v>
@@ -39128,42 +39131,42 @@
         <v>38</v>
       </c>
       <c r="AY229" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AZ229" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H230" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K230" s="0" t="s">
         <v>38</v>
@@ -39172,7 +39175,7 @@
         <v>417</v>
       </c>
       <c r="M230" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N230" s="0" t="s">
         <v>38</v>
@@ -39190,7 +39193,7 @@
         <v>247</v>
       </c>
       <c r="S230" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T230" s="0" t="s">
         <v>38</v>
@@ -39226,7 +39229,7 @@
         <v>281</v>
       </c>
       <c r="AE230" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF230" s="0" t="s">
         <v>38</v>
@@ -39271,7 +39274,7 @@
         <v>253</v>
       </c>
       <c r="AT230" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AU230" s="0" t="s">
         <v>38</v>
@@ -39286,42 +39289,42 @@
         <v>38</v>
       </c>
       <c r="AY230" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AZ230" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B231" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E231" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H231" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K231" s="0" t="s">
         <v>38</v>
@@ -39330,7 +39333,7 @@
         <v>417</v>
       </c>
       <c r="M231" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N231" s="0" t="s">
         <v>38</v>
@@ -39348,7 +39351,7 @@
         <v>247</v>
       </c>
       <c r="S231" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T231" s="0" t="s">
         <v>38</v>
@@ -39384,7 +39387,7 @@
         <v>281</v>
       </c>
       <c r="AE231" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF231" s="0" t="s">
         <v>38</v>
@@ -39429,7 +39432,7 @@
         <v>253</v>
       </c>
       <c r="AT231" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AU231" s="0" t="s">
         <v>38</v>
@@ -39444,15 +39447,15 @@
         <v>38</v>
       </c>
       <c r="AY231" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AZ231" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B232" s="0" t="s">
         <v>38</v>
@@ -39467,10 +39470,10 @@
         <v>38</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H232" s="0" t="s">
         <v>38</v>
@@ -39479,16 +39482,16 @@
         <v>77</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="K232" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L232" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="M232" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N232" s="0" t="s">
         <v>38</v>
@@ -39542,7 +39545,7 @@
         <v>281</v>
       </c>
       <c r="AE232" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF232" s="0" t="s">
         <v>38</v>
@@ -39587,7 +39590,7 @@
         <v>253</v>
       </c>
       <c r="AT232" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AU232" s="0" t="s">
         <v>38</v>
@@ -39602,15 +39605,15 @@
         <v>38</v>
       </c>
       <c r="AY232" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AZ232" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>38</v>
@@ -39619,16 +39622,16 @@
         <v>39</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E233" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H233" s="0" t="s">
         <v>38</v>
@@ -39637,25 +39640,25 @@
         <v>43</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="K233" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L233" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M233" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N233" s="0" t="s">
         <v>38</v>
       </c>
       <c r="O233" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="P233" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="Q233" s="0" t="s">
         <v>38</v>
@@ -39664,16 +39667,16 @@
         <v>49</v>
       </c>
       <c r="S233" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T233" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U233" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="V233" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="W233" s="0" t="s">
         <v>38</v>
@@ -39682,25 +39685,25 @@
         <v>148</v>
       </c>
       <c r="Y233" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="Z233" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AA233" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AB233" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AC233" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD233" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AE233" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AF233" s="0" t="s">
         <v>38</v>
@@ -39709,7 +39712,7 @@
         <v>59</v>
       </c>
       <c r="AH233" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AI233" s="0" t="s">
         <v>61</v>
@@ -39727,7 +39730,7 @@
         <v>62</v>
       </c>
       <c r="AN233" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AO233" s="0" t="s">
         <v>38</v>
@@ -39736,39 +39739,39 @@
         <v>64</v>
       </c>
       <c r="AQ233" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AR233" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AS233" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AT233" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AU233" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AV233" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AW233" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AX233" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AY233" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AZ233" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>38</v>
@@ -39777,16 +39780,16 @@
         <v>123</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E234" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H234" s="0" t="s">
         <v>38</v>
@@ -39795,25 +39798,25 @@
         <v>77</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="K234" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L234" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M234" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N234" s="0" t="s">
         <v>38</v>
       </c>
       <c r="O234" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="P234" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="Q234" s="0" t="s">
         <v>38</v>
@@ -39822,7 +39825,7 @@
         <v>125</v>
       </c>
       <c r="S234" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="T234" s="0" t="s">
         <v>38</v>
@@ -39831,16 +39834,16 @@
         <v>233</v>
       </c>
       <c r="V234" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="W234" s="0" t="s">
         <v>38</v>
       </c>
       <c r="X234" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Y234" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="Z234" s="0" t="s">
         <v>38</v>
@@ -39849,16 +39852,16 @@
         <v>88</v>
       </c>
       <c r="AB234" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AC234" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD234" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AE234" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AF234" s="0" t="s">
         <v>38</v>
@@ -39867,7 +39870,7 @@
         <v>133</v>
       </c>
       <c r="AH234" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AI234" s="0" t="s">
         <v>61</v>
@@ -39885,7 +39888,7 @@
         <v>135</v>
       </c>
       <c r="AN234" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AO234" s="0" t="s">
         <v>38</v>
@@ -39894,7 +39897,7 @@
         <v>97</v>
       </c>
       <c r="AQ234" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AR234" s="0" t="s">
         <v>38</v>
@@ -39903,7 +39906,7 @@
         <v>253</v>
       </c>
       <c r="AT234" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AU234" s="0" t="s">
         <v>38</v>
@@ -39912,7 +39915,7 @@
         <v>101</v>
       </c>
       <c r="AW234" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX234" s="0" t="s">
         <v>38</v>
@@ -39921,21 +39924,21 @@
         <v>120</v>
       </c>
       <c r="AZ234" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E235" s="0" t="s">
         <v>38</v>
@@ -39944,16 +39947,16 @@
         <v>183</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H235" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K235" s="0" t="s">
         <v>38</v>
@@ -39962,16 +39965,16 @@
         <v>233</v>
       </c>
       <c r="M235" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N235" s="0" t="s">
         <v>38</v>
       </c>
       <c r="O235" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P235" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Q235" s="0" t="s">
         <v>38</v>
@@ -39980,16 +39983,16 @@
         <v>247</v>
       </c>
       <c r="S235" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T235" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U235" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="V235" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="W235" s="0" t="s">
         <v>38</v>
@@ -39998,7 +40001,7 @@
         <v>129</v>
       </c>
       <c r="Y235" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Z235" s="0" t="s">
         <v>38</v>
@@ -40007,16 +40010,16 @@
         <v>123</v>
       </c>
       <c r="AB235" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AC235" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD235" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AE235" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AF235" s="0" t="s">
         <v>38</v>
@@ -40025,7 +40028,7 @@
         <v>91</v>
       </c>
       <c r="AH235" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AI235" s="0" t="s">
         <v>61</v>
@@ -40040,19 +40043,19 @@
         <v>38</v>
       </c>
       <c r="AM235" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AN235" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AO235" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AP235" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AQ235" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="AR235" s="0" t="s">
         <v>38</v>
@@ -40061,7 +40064,7 @@
         <v>253</v>
       </c>
       <c r="AT235" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AU235" s="0" t="s">
         <v>38</v>
@@ -40070,30 +40073,30 @@
         <v>101</v>
       </c>
       <c r="AW235" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX235" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AY235" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AZ235" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E236" s="0" t="s">
         <v>38</v>
@@ -40102,16 +40105,16 @@
         <v>183</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H236" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K236" s="0" t="s">
         <v>38</v>
@@ -40120,16 +40123,16 @@
         <v>371</v>
       </c>
       <c r="M236" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N236" s="0" t="s">
         <v>38</v>
       </c>
       <c r="O236" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P236" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Q236" s="0" t="s">
         <v>38</v>
@@ -40138,16 +40141,16 @@
         <v>247</v>
       </c>
       <c r="S236" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T236" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U236" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="V236" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="W236" s="0" t="s">
         <v>38</v>
@@ -40156,7 +40159,7 @@
         <v>129</v>
       </c>
       <c r="Y236" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Z236" s="0" t="s">
         <v>38</v>
@@ -40165,16 +40168,16 @@
         <v>88</v>
       </c>
       <c r="AB236" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AC236" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD236" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AE236" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AF236" s="0" t="s">
         <v>38</v>
@@ -40183,7 +40186,7 @@
         <v>91</v>
       </c>
       <c r="AH236" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AI236" s="0" t="s">
         <v>61</v>
@@ -40198,10 +40201,10 @@
         <v>38</v>
       </c>
       <c r="AM236" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AN236" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AO236" s="0" t="s">
         <v>38</v>
@@ -40210,7 +40213,7 @@
         <v>97</v>
       </c>
       <c r="AQ236" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AR236" s="0" t="s">
         <v>38</v>
@@ -40219,7 +40222,7 @@
         <v>253</v>
       </c>
       <c r="AT236" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AU236" s="0" t="s">
         <v>38</v>
@@ -40228,30 +40231,30 @@
         <v>101</v>
       </c>
       <c r="AW236" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX236" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AY236" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AZ236" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E237" s="0" t="s">
         <v>38</v>
@@ -40260,16 +40263,16 @@
         <v>183</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H237" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K237" s="0" t="s">
         <v>38</v>
@@ -40278,16 +40281,16 @@
         <v>371</v>
       </c>
       <c r="M237" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N237" s="0" t="s">
         <v>38</v>
       </c>
       <c r="O237" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P237" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Q237" s="0" t="s">
         <v>38</v>
@@ -40296,16 +40299,16 @@
         <v>247</v>
       </c>
       <c r="S237" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T237" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U237" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="V237" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="W237" s="0" t="s">
         <v>38</v>
@@ -40314,7 +40317,7 @@
         <v>183</v>
       </c>
       <c r="Y237" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="Z237" s="0" t="s">
         <v>38</v>
@@ -40323,16 +40326,16 @@
         <v>88</v>
       </c>
       <c r="AB237" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AC237" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD237" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AE237" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AF237" s="0" t="s">
         <v>38</v>
@@ -40341,7 +40344,7 @@
         <v>91</v>
       </c>
       <c r="AH237" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AI237" s="0" t="s">
         <v>61</v>
@@ -40356,10 +40359,10 @@
         <v>38</v>
       </c>
       <c r="AM237" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AN237" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AO237" s="0" t="s">
         <v>38</v>
@@ -40368,7 +40371,7 @@
         <v>97</v>
       </c>
       <c r="AQ237" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AR237" s="0" t="s">
         <v>38</v>
@@ -40377,7 +40380,7 @@
         <v>253</v>
       </c>
       <c r="AT237" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AU237" s="0" t="s">
         <v>38</v>
@@ -40386,66 +40389,66 @@
         <v>101</v>
       </c>
       <c r="AW237" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX237" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AY237" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AZ237" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E238" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H238" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K238" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L238" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M238" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N238" s="0" t="s">
         <v>38</v>
       </c>
       <c r="O238" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P238" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Q238" s="0" t="s">
         <v>38</v>
@@ -40454,7 +40457,7 @@
         <v>247</v>
       </c>
       <c r="S238" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T238" s="0" t="s">
         <v>38</v>
@@ -40463,7 +40466,7 @@
         <v>233</v>
       </c>
       <c r="V238" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="W238" s="0" t="s">
         <v>38</v>
@@ -40472,7 +40475,7 @@
         <v>129</v>
       </c>
       <c r="Y238" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Z238" s="0" t="s">
         <v>38</v>
@@ -40481,16 +40484,16 @@
         <v>88</v>
       </c>
       <c r="AB238" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AC238" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD238" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AE238" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AF238" s="0" t="s">
         <v>38</v>
@@ -40499,7 +40502,7 @@
         <v>91</v>
       </c>
       <c r="AH238" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AI238" s="0" t="s">
         <v>61</v>
@@ -40514,10 +40517,10 @@
         <v>38</v>
       </c>
       <c r="AM238" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AN238" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AO238" s="0" t="s">
         <v>38</v>
@@ -40526,7 +40529,7 @@
         <v>97</v>
       </c>
       <c r="AQ238" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AR238" s="0" t="s">
         <v>38</v>
@@ -40535,7 +40538,7 @@
         <v>253</v>
       </c>
       <c r="AT238" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AU238" s="0" t="s">
         <v>38</v>
@@ -40544,66 +40547,66 @@
         <v>101</v>
       </c>
       <c r="AW238" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX238" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AY238" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AZ238" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B239" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E239" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H239" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K239" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L239" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M239" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N239" s="0" t="s">
         <v>38</v>
       </c>
       <c r="O239" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P239" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Q239" s="0" t="s">
         <v>38</v>
@@ -40612,7 +40615,7 @@
         <v>247</v>
       </c>
       <c r="S239" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T239" s="0" t="s">
         <v>38</v>
@@ -40621,7 +40624,7 @@
         <v>233</v>
       </c>
       <c r="V239" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="W239" s="0" t="s">
         <v>38</v>
@@ -40630,7 +40633,7 @@
         <v>129</v>
       </c>
       <c r="Y239" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Z239" s="0" t="s">
         <v>38</v>
@@ -40639,16 +40642,16 @@
         <v>88</v>
       </c>
       <c r="AB239" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AC239" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD239" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AE239" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF239" s="0" t="s">
         <v>38</v>
@@ -40657,7 +40660,7 @@
         <v>91</v>
       </c>
       <c r="AH239" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AI239" s="0" t="s">
         <v>61</v>
@@ -40672,10 +40675,10 @@
         <v>38</v>
       </c>
       <c r="AM239" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AN239" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AO239" s="0" t="s">
         <v>38</v>
@@ -40684,7 +40687,7 @@
         <v>97</v>
       </c>
       <c r="AQ239" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AR239" s="0" t="s">
         <v>38</v>
@@ -40693,7 +40696,7 @@
         <v>253</v>
       </c>
       <c r="AT239" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AU239" s="0" t="s">
         <v>38</v>
@@ -40702,66 +40705,66 @@
         <v>101</v>
       </c>
       <c r="AW239" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX239" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AY239" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AZ239" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B240" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E240" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H240" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K240" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L240" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M240" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N240" s="0" t="s">
         <v>38</v>
       </c>
       <c r="O240" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P240" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Q240" s="0" t="s">
         <v>38</v>
@@ -40770,7 +40773,7 @@
         <v>247</v>
       </c>
       <c r="S240" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T240" s="0" t="s">
         <v>38</v>
@@ -40779,7 +40782,7 @@
         <v>233</v>
       </c>
       <c r="V240" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="W240" s="0" t="s">
         <v>38</v>
@@ -40788,7 +40791,7 @@
         <v>129</v>
       </c>
       <c r="Y240" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Z240" s="0" t="s">
         <v>38</v>
@@ -40797,16 +40800,16 @@
         <v>88</v>
       </c>
       <c r="AB240" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AC240" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD240" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AE240" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AF240" s="0" t="s">
         <v>38</v>
@@ -40815,7 +40818,7 @@
         <v>91</v>
       </c>
       <c r="AH240" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AI240" s="0" t="s">
         <v>61</v>
@@ -40830,10 +40833,10 @@
         <v>38</v>
       </c>
       <c r="AM240" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AN240" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AO240" s="0" t="s">
         <v>38</v>
@@ -40842,7 +40845,7 @@
         <v>97</v>
       </c>
       <c r="AQ240" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AR240" s="0" t="s">
         <v>38</v>
@@ -40851,7 +40854,7 @@
         <v>253</v>
       </c>
       <c r="AT240" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AU240" s="0" t="s">
         <v>38</v>
@@ -40860,66 +40863,66 @@
         <v>101</v>
       </c>
       <c r="AW240" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX240" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AY240" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AZ240" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E241" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H241" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K241" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L241" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M241" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N241" s="0" t="s">
         <v>38</v>
       </c>
       <c r="O241" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P241" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Q241" s="0" t="s">
         <v>38</v>
@@ -40928,7 +40931,7 @@
         <v>247</v>
       </c>
       <c r="S241" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T241" s="0" t="s">
         <v>38</v>
@@ -40937,7 +40940,7 @@
         <v>233</v>
       </c>
       <c r="V241" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="W241" s="0" t="s">
         <v>38</v>
@@ -40946,7 +40949,7 @@
         <v>129</v>
       </c>
       <c r="Y241" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Z241" s="0" t="s">
         <v>38</v>
@@ -40955,16 +40958,16 @@
         <v>88</v>
       </c>
       <c r="AB241" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AC241" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD241" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AE241" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AF241" s="0" t="s">
         <v>38</v>
@@ -40973,7 +40976,7 @@
         <v>133</v>
       </c>
       <c r="AH241" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AI241" s="0" t="s">
         <v>61</v>
@@ -40991,7 +40994,7 @@
         <v>95</v>
       </c>
       <c r="AN241" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AO241" s="0" t="s">
         <v>38</v>
@@ -41000,7 +41003,7 @@
         <v>97</v>
       </c>
       <c r="AQ241" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AR241" s="0" t="s">
         <v>38</v>
@@ -41009,7 +41012,7 @@
         <v>253</v>
       </c>
       <c r="AT241" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AU241" s="0" t="s">
         <v>38</v>
@@ -41018,48 +41021,48 @@
         <v>101</v>
       </c>
       <c r="AW241" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX241" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AY241" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AZ241" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B242" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E242" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H242" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K242" s="0" t="s">
         <v>38</v>
@@ -41068,7 +41071,7 @@
         <v>45</v>
       </c>
       <c r="M242" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N242" s="0" t="s">
         <v>38</v>
@@ -41077,25 +41080,25 @@
         <v>142</v>
       </c>
       <c r="P242" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="Q242" s="0" t="s">
         <v>38</v>
       </c>
       <c r="R242" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="S242" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="T242" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U242" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="V242" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="W242" s="0" t="s">
         <v>38</v>
@@ -41119,10 +41122,10 @@
         <v>38</v>
       </c>
       <c r="AD242" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AE242" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AF242" s="0" t="s">
         <v>38</v>
@@ -41155,25 +41158,25 @@
         <v>38</v>
       </c>
       <c r="AP242" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AQ242" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AR242" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AS242" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AT242" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AU242" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AV242" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AW242" s="0" t="s">
         <v>69</v>
@@ -41182,42 +41185,42 @@
         <v>38</v>
       </c>
       <c r="AY242" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AZ242" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B243" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E243" s="0" t="s">
         <v>38</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H243" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K243" s="0" t="s">
         <v>38</v>
@@ -41226,7 +41229,7 @@
         <v>116</v>
       </c>
       <c r="M243" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N243" s="0" t="s">
         <v>38</v>
@@ -41244,7 +41247,7 @@
         <v>247</v>
       </c>
       <c r="S243" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T243" s="0" t="s">
         <v>38</v>
@@ -41280,7 +41283,7 @@
         <v>171</v>
       </c>
       <c r="AE243" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AF243" s="0" t="s">
         <v>38</v>
@@ -41313,10 +41316,10 @@
         <v>38</v>
       </c>
       <c r="AP243" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AQ243" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AR243" s="0" t="s">
         <v>38</v>
@@ -41325,7 +41328,7 @@
         <v>253</v>
       </c>
       <c r="AT243" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AU243" s="0" t="s">
         <v>38</v>
@@ -41340,15 +41343,15 @@
         <v>38</v>
       </c>
       <c r="AY243" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AZ243" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>61</v>
@@ -41381,7 +41384,7 @@
         <v>38</v>
       </c>
       <c r="L244" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M244" s="0" t="s">
         <v>61</v>
@@ -41435,7 +41438,7 @@
         <v>38</v>
       </c>
       <c r="AD244" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AE244" s="0" t="s">
         <v>61</v>
@@ -41506,7 +41509,7 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B245" s="0" t="s">
         <v>61</v>
@@ -41539,7 +41542,7 @@
         <v>38</v>
       </c>
       <c r="L245" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M245" s="0" t="s">
         <v>61</v>
@@ -41593,7 +41596,7 @@
         <v>38</v>
       </c>
       <c r="AD245" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AE245" s="0" t="s">
         <v>61</v>
@@ -41656,7 +41659,7 @@
         <v>38</v>
       </c>
       <c r="AY245" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AZ245" s="0" t="s">
         <v>61</v>
@@ -41664,7 +41667,7 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>61</v>
@@ -41697,7 +41700,7 @@
         <v>38</v>
       </c>
       <c r="L246" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M246" s="0" t="s">
         <v>61</v>
@@ -41751,7 +41754,7 @@
         <v>38</v>
       </c>
       <c r="AD246" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AE246" s="0" t="s">
         <v>61</v>
@@ -41814,7 +41817,7 @@
         <v>38</v>
       </c>
       <c r="AY246" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AZ246" s="0" t="s">
         <v>61</v>
@@ -41822,7 +41825,7 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>61</v>
@@ -41855,7 +41858,7 @@
         <v>38</v>
       </c>
       <c r="L247" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M247" s="0" t="s">
         <v>61</v>
@@ -41909,7 +41912,7 @@
         <v>38</v>
       </c>
       <c r="AD247" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AE247" s="0" t="s">
         <v>61</v>
@@ -41972,7 +41975,7 @@
         <v>38</v>
       </c>
       <c r="AY247" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AZ247" s="0" t="s">
         <v>61</v>
@@ -41980,7 +41983,7 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>61</v>
@@ -42067,7 +42070,7 @@
         <v>38</v>
       </c>
       <c r="AD248" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="AE248" s="0" t="s">
         <v>61</v>
@@ -42138,7 +42141,7 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B249" s="0" t="s">
         <v>61</v>
